--- a/experiment/x_category_1_svm_ngrams/inspect/score.xlsx
+++ b/experiment/x_category_1_svm_ngrams/inspect/score.xlsx
@@ -467,28 +467,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G2" t="n">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="H2" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -496,25 +496,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
         <v>0.93</v>
       </c>
       <c r="G3" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="H3" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="I3" t="n">
         <v>0.78</v>
@@ -525,28 +525,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F4" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="I4" t="n">
-        <v>0.57</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -554,28 +554,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F5" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="G5" t="n">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="H5" t="n">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="I5" t="n">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -583,25 +583,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.67</v>
       </c>
       <c r="I6" t="n">
         <v>0.67</v>
@@ -612,28 +612,28 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C7" t="n">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F7" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="H7" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="I7" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -641,28 +641,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.77</v>
+        <v>0.89</v>
       </c>
       <c r="I8" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -670,7 +670,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
         <v>479</v>
@@ -679,19 +679,19 @@
         <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
         <v>0.97</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="H9" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -699,28 +699,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G10" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -728,7 +728,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>494</v>
@@ -737,19 +737,19 @@
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
         <v>0.98</v>
       </c>
       <c r="G11" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="H11" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="I11" t="n">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -786,7 +786,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>482</v>
@@ -795,19 +795,19 @@
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" t="n">
         <v>0.95</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="H13" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="I13" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -844,28 +844,28 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>501</v>
+      </c>
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="C15" t="n">
-        <v>504</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0.99</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="I15" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
